--- a/3.ehome/03-项目管理/05 员工日报/863-PMC-06 邵德才日报 V1.1.xlsx
+++ b/3.ehome/03-项目管理/05 员工日报/863-PMC-06 邵德才日报 V1.1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <r>
       <rPr>
@@ -389,15 +389,60 @@
 1、赞过我的（dao+service+controller）
 </t>
   </si>
+  <si>
+    <t>20170814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成工作:
+1、订单消息（dao+service+controller）
+2、找到需要即时通讯的接口
+</t>
+  </si>
+  <si>
+    <t>20170815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成工作:
+1、确认管理员消息的逻辑
+2、管理员消息功能
+</t>
+  </si>
+  <si>
+    <t>20170816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成工作:
+1、管理员消息的功能代码实现
+2、总结@我的 功能逻辑
+</t>
+  </si>
+  <si>
+    <t>20170817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成工作:
+1、联调接口问题的bug的修复
+2、即时通讯
+</t>
+  </si>
+  <si>
+    <t>20170818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成工作:
+1、联调接口问题的bug的修复
+2、优化程序代码
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="77">
@@ -584,6 +629,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -634,14 +687,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -658,17 +703,17 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -762,6 +807,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="20"/>
+      <name val="HP Logo LG"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color indexed="56"/>
@@ -769,17 +825,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="20"/>
-      <name val="HP Logo LG"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="Calibri"/>
@@ -819,12 +864,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
@@ -832,6 +871,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color indexed="12"/>
@@ -1059,24 +1104,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1155,18 +1200,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1221,25 +1266,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,6 +1695,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1664,21 +1724,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1688,7 +1733,7 @@
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1697,7 +1742,7 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1707,22 +1752,22 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1737,22 +1782,22 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1765,7 +1810,7 @@
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1774,85 +1819,85 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1860,10 +1905,10 @@
     <xf numFmtId="0" fontId="46" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="61" fillId="52" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="53" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="55" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="22" applyBorder="0">
@@ -1872,26 +1917,26 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="22" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="22" applyBorder="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="22" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="54" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="62" fillId="52" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="32" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1904,13 +1949,13 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="26" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1949,7 +1994,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="108" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="102" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="103" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="108" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1973,103 +2018,103 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="108" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="54">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="55">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="54" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="55" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="54" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="55" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="54" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="55" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="54" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="54" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="54" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="54" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="55" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="55" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="55" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="55" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="54" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="54" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="55" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="55" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="54" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="54" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="54" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="54" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="55" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="55" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="55" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="55" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2088,9 +2133,9 @@
     <cellStyle name="超链接" xfId="11" builtinId="8"/>
     <cellStyle name="百分比" xfId="12" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="40% - Accent6" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="Header 1" xfId="16"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="Header 1" xfId="15"/>
+    <cellStyle name="40% - Accent6" xfId="16"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
     <cellStyle name="标题 4" xfId="18" builtinId="19"/>
     <cellStyle name="警告文本" xfId="19" builtinId="11"/>
@@ -2124,13 +2169,13 @@
     <cellStyle name="Table Heading" xfId="47"/>
     <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="49" builtinId="42"/>
-    <cellStyle name="60% - Accent1" xfId="50"/>
-    <cellStyle name="20% - Accent5" xfId="51"/>
+    <cellStyle name="20% - Accent5" xfId="50"/>
+    <cellStyle name="60% - Accent1" xfId="51"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="54"/>
-    <cellStyle name="60% - Accent2" xfId="55"/>
-    <cellStyle name="20% - Accent6" xfId="56"/>
+    <cellStyle name="20% - Accent6" xfId="54"/>
+    <cellStyle name="常规 2 2" xfId="55"/>
+    <cellStyle name="60% - Accent2" xfId="56"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
@@ -2155,8 +2200,8 @@
     <cellStyle name="Accent6" xfId="78"/>
     <cellStyle name="Bad" xfId="79"/>
     <cellStyle name="Calculation" xfId="80"/>
-    <cellStyle name="Table Small Center" xfId="81"/>
-    <cellStyle name="Check Cell" xfId="82"/>
+    <cellStyle name="Check Cell" xfId="81"/>
+    <cellStyle name="Table Small Center" xfId="82"/>
     <cellStyle name="Explanatory Text" xfId="83"/>
     <cellStyle name="Good" xfId="84"/>
     <cellStyle name="Header 2" xfId="85"/>
@@ -2176,8 +2221,8 @@
     <cellStyle name="Table Small" xfId="99"/>
     <cellStyle name="Table Small Bold" xfId="100"/>
     <cellStyle name="Table Title" xfId="101"/>
-    <cellStyle name="常规 2" xfId="102"/>
-    <cellStyle name="Title" xfId="103"/>
+    <cellStyle name="Title" xfId="102"/>
+    <cellStyle name="常规 2" xfId="103"/>
     <cellStyle name="Total" xfId="104"/>
     <cellStyle name="Warning Text" xfId="105"/>
     <cellStyle name="標準 2" xfId="106"/>
@@ -4379,13 +4424,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
@@ -4534,12 +4579,117 @@
       </c>
       <c r="G7" s="8"/>
     </row>
+    <row r="8" ht="81" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
+        <v>200</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="67.5" spans="1:7">
+      <c r="A9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8">
+        <v>200</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="67.5" spans="1:7">
+      <c r="A10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8">
+        <v>200</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="54" spans="1:7">
+      <c r="A11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8">
+        <v>200</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" ht="54" spans="1:7">
+      <c r="A12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="8">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8">
+        <v>200</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B4 B5 B6:B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B4 B5 B6 B7 B8 B9 B10:B12">
       <formula1>"项目管理,设计书编写,设计书review,代码开发,代码review,单元测试,单元测试文档编写,单元测试文档review,系统测试,系统测试文档编写"</formula1>
     </dataValidation>
   </dataValidations>
